--- a/data/outputs/management_elsevier/63.xlsx
+++ b/data/outputs/management_elsevier/63.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS49"/>
+  <dimension ref="A1:BU49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -942,6 +952,12 @@
         <is>
           <t>2-s2.0-84947559528</t>
         </is>
+      </c>
+      <c r="BT2" t="n">
+        <v>857</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84951761751</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1104</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1361,6 +1383,12 @@
           <t>2-s2.0-84947447677</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>8814</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1573,6 +1601,12 @@
         <is>
           <t>2-s2.0-84945579237</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>4596</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1779,6 +1813,12 @@
           <t>2-s2.0-84951816216</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1130</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1996,6 +2036,12 @@
           <t>2-s2.0-84945263344</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1461</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2220,6 +2266,12 @@
         <is>
           <t>2-s2.0-84944081004</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>2414</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2430,6 +2482,12 @@
           <t>2-s2.0-84951742510</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>6452</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2635,6 +2693,12 @@
           <t>2-s2.0-84945484623</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>6705</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2851,6 +2915,12 @@
         <is>
           <t>2-s2.0-84945474653</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>3229</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3061,6 +3131,12 @@
           <t>2-s2.0-84945469489</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2575</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3270,6 +3346,12 @@
           <t>2-s2.0-84945465415</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1691</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3483,6 +3565,12 @@
           <t>2-s2.0-84945486373</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1151</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3705,6 +3793,12 @@
         <is>
           <t>2-s2.0-84945485266</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>1913</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -3913,6 +4007,12 @@
           <t>2-s2.0-84945488943</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>2638</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4128,6 +4228,12 @@
           <t>2-s2.0-84945466982</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>4764</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4351,6 +4457,12 @@
           <t>2-s2.0-84945491651</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>2649</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4562,6 +4674,12 @@
           <t>2-s2.0-84945265756</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1850</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4787,6 +4905,12 @@
           <t>2-s2.0-84945440621</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>6995</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5007,6 +5131,12 @@
         <is>
           <t>2-s2.0-84933673685</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>2839</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -5215,6 +5345,12 @@
           <t>2-s2.0-84933678751</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>4395</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5437,6 +5573,12 @@
         <is>
           <t>2-s2.0-84933673009</t>
         </is>
+      </c>
+      <c r="BT23" t="n">
+        <v>1487</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -5645,6 +5787,12 @@
           <t>2-s2.0-84933672834</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1311</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5852,6 +6000,12 @@
           <t>2-s2.0-84933679159</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>2648</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6064,6 +6218,12 @@
         <is>
           <t>2-s2.0-84933676612</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>1342</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -6252,6 +6412,12 @@
           <t>2-s2.0-84929266560</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>475</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6447,6 +6613,12 @@
           <t>2-s2.0-84929278548</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>333</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6650,6 +6822,12 @@
           <t>2-s2.0-84929281499</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1894</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6857,6 +7035,12 @@
           <t>2-s2.0-84929289505</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>5474</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7067,6 +7251,12 @@
         <is>
           <t>2-s2.0-84929283631</t>
         </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>1048</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -7275,6 +7465,12 @@
           <t>2-s2.0-84929253004</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1692</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7496,6 +7692,12 @@
           <t>2-s2.0-84929289193</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>19514</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7710,6 +7912,12 @@
         <is>
           <t>2-s2.0-84929286551</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>2386</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -7906,6 +8114,12 @@
           <t>2-s2.0-84933280421</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>245</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8113,6 +8327,12 @@
           <t>2-s2.0-84933042069</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>1977</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8335,6 +8555,12 @@
         <is>
           <t>2-s2.0-84933280366</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>1287</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -8547,6 +8773,12 @@
           <t>2-s2.0-84933278068</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>4137</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8761,6 +8993,12 @@
         <is>
           <t>2-s2.0-84933279894</t>
         </is>
+      </c>
+      <c r="BT39" t="n">
+        <v>2090</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -8969,6 +9207,12 @@
           <t>2-s2.0-84937191451</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>2657</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9194,6 +9438,12 @@
           <t>2-s2.0-84933041533</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>5455</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9409,6 +9659,12 @@
           <t>2-s2.0-84933280217</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>2837</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9624,6 +9880,12 @@
           <t>2-s2.0-84921289889</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>2958</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9846,6 +10108,12 @@
         <is>
           <t>2-s2.0-84921307667</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>2840</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -10054,6 +10322,12 @@
           <t>2-s2.0-84921365724</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1996</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10269,6 +10543,12 @@
           <t>2-s2.0-84921423159</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>2447</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10482,6 +10762,12 @@
           <t>2-s2.0-84921422790</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>2147</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10706,6 +10992,12 @@
         <is>
           <t>2-s2.0-84921388331</t>
         </is>
+      </c>
+      <c r="BT48" t="n">
+        <v>3680</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -10916,6 +11208,12 @@
           <t>2-s2.0-84921387440</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>10970</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
